--- a/import/con-project.xlsx
+++ b/import/con-project.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mong/CodeGenerate/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2183C68-5E71-8F4F-89E9-F7CA7E7E4B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C945EA2-0D2C-4A41-BC14-E00944090717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="24360" windowHeight="15500" firstSheet="8" activeTab="17" xr2:uid="{BE4B5314-5771-344C-8DAD-5F8BB5566E24}"/>
+    <workbookView xWindow="25600" yWindow="-7500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{BE4B5314-5771-344C-8DAD-5F8BB5566E24}"/>
   </bookViews>
   <sheets>
     <sheet name="validate" sheetId="2" r:id="rId1"/>
     <sheet name="address" sheetId="7" state="hidden" r:id="rId2"/>
-    <sheet name="country" sheetId="27" state="hidden" r:id="rId3"/>
-    <sheet name="province" sheetId="26" state="hidden" r:id="rId4"/>
-    <sheet name="district" sheetId="28" state="hidden" r:id="rId5"/>
-    <sheet name="sub-district" sheetId="30" state="hidden" r:id="rId6"/>
+    <sheet name="country" sheetId="27" r:id="rId3"/>
+    <sheet name="province" sheetId="26" r:id="rId4"/>
+    <sheet name="district" sheetId="28" r:id="rId5"/>
+    <sheet name="sub_district" sheetId="30" r:id="rId6"/>
     <sheet name="shop" sheetId="31" r:id="rId7"/>
     <sheet name="category" sheetId="32" r:id="rId8"/>
     <sheet name="product" sheetId="33" r:id="rId9"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="184">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -1231,7 +1231,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R4"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1354,7 +1354,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
@@ -1402,7 +1404,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
@@ -3663,7 +3667,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3788,7 +3792,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>82</v>
       </c>
@@ -3838,7 +3844,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -3882,7 +3890,9 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>83</v>
       </c>
@@ -3926,7 +3936,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
@@ -4917,7 +4929,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R5"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5042,7 +5054,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
@@ -5088,7 +5102,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>88</v>
       </c>
@@ -5132,7 +5148,9 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>89</v>
       </c>
@@ -6143,7 +6161,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R6"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6266,7 +6284,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
@@ -6312,7 +6332,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>92</v>
       </c>
@@ -6360,7 +6382,9 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>93</v>
       </c>
@@ -6404,7 +6428,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
@@ -7401,7 +7427,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R7"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7526,7 +7552,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
@@ -7576,7 +7604,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
@@ -7620,7 +7650,9 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>96</v>
       </c>
@@ -7664,7 +7696,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
@@ -7712,7 +7746,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
@@ -8681,7 +8717,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8806,7 +8842,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
@@ -8856,7 +8894,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>171</v>
       </c>
@@ -9887,7 +9927,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R4"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10012,7 +10052,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
@@ -10058,7 +10100,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>105</v>
       </c>
@@ -11093,9 +11137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD996B6-EC3C-2B47-B998-2CA3467A7398}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O12" sqref="O12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11220,7 +11264,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>104</v>
       </c>
@@ -11270,7 +11316,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
@@ -11314,7 +11362,9 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>103</v>
       </c>
@@ -22743,10 +22793,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2DAAA0-3F26-CB4C-A036-9580608DAE67}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="R2" sqref="R2:R5"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R5"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25348,7 +25398,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R4"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25471,7 +25521,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>75</v>
       </c>
@@ -25517,7 +25569,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>76</v>
       </c>
@@ -26548,7 +26602,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R5"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26671,7 +26725,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>117</v>
       </c>
@@ -26719,7 +26775,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
@@ -26761,7 +26819,9 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
